--- a/validation_panels/PGx_NP_bin_seting_table_new_form.xlsx
+++ b/validation_panels/PGx_NP_bin_seting_table_new_form.xlsx
@@ -5406,7 +5406,7 @@
         <v>40.5</v>
       </c>
       <c r="O72" t="n">
-        <v>43.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
